--- a/training_testing_sequence.xlsx
+++ b/training_testing_sequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\_Projects\miRNA-motif-finding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renbo\Downloads\Trial\newest\automated-motif-finding-algorithm-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D93436-9C17-476D-BDA1-180EA57B9247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F7425-0D9A-4498-8F08-2F22C44BD925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">train!$A$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
   <si>
     <t>miRNA</t>
   </si>
@@ -430,6 +417,48 @@
   </si>
   <si>
     <t>hsa-miR-29c-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-141-3p</t>
+  </si>
+  <si>
+    <t>UAACACUGUCUGGUAAAGAUGG</t>
+  </si>
+  <si>
+    <t>hsa-miR-143-5p</t>
+  </si>
+  <si>
+    <t>GGUGCAGUGCUGCAUCUCUGGU</t>
+  </si>
+  <si>
+    <t>hsa-miR-148a-3p</t>
+  </si>
+  <si>
+    <t>UCAGUGCACUACAGAACUUUGU</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-5p</t>
+  </si>
+  <si>
+    <t>UAGCAGCACAUCAUGGUUUACA</t>
+  </si>
+  <si>
+    <t>hsa-miR-194-5p</t>
+  </si>
+  <si>
+    <t>UGUAACAGCAACUCCAUGUGGA</t>
+  </si>
+  <si>
+    <t>hsa-miR-200a-3p</t>
+  </si>
+  <si>
+    <t>UAACACUGUCUGGUAACGAUGU</t>
+  </si>
+  <si>
+    <t>hsa-miR-98-5p</t>
+  </si>
+  <si>
+    <t>UGAGGUAGUAAGUUGUAUUGUU</t>
   </si>
 </sst>
 </file>
@@ -1283,17 +1312,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1337,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1359,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1403,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1425,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1447,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1458,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1469,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1480,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1491,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1502,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1513,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1524,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1535,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1546,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1557,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1568,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1579,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1590,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1601,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1612,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1623,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1634,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1645,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1656,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -1675,19 +1704,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6079097-20F9-42A5-8403-59D9527473A6}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1709,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1720,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1731,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -1742,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -1753,291 +1782,368 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>77</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>118</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>119</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>79</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>121</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>122</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>123</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>125</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>85</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>126</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>86</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>127</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>87</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>88</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>91</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>94</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>95</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>128</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>96</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>97</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>98</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>100</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>101</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>102</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>103</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>104</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>105</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>129</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>107</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>109</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>110</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>130</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>113</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>114</v>
       </c>
-      <c r="C32">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39">
         <v>1</v>
       </c>
     </row>

--- a/training_testing_sequence.xlsx
+++ b/training_testing_sequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renbo\Downloads\Trial\newest\automated-motif-finding-algorithm-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://somumaryland-my.sharepoint.com/personal/bren_som_umaryland_edu/Documents/Documents/STAR PROTOCOLS/STAR PROTOCOL_RC/Code/automated-motif-finding-algorithm-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F7425-0D9A-4498-8F08-2F22C44BD925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{F24F7425-0D9A-4498-8F08-2F22C44BD925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5463A93E-16BD-3E4C-8839-B8020422C7D9}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6040" yWindow="1840" windowWidth="26000" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -35,204 +35,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>miR-193b-3p</t>
-  </si>
-  <si>
-    <t>aacuggcccacaaagucccgcu</t>
-  </si>
-  <si>
-    <t>miR-345-3p</t>
-  </si>
-  <si>
-    <t>ccugaacuaggggucuggagac</t>
-  </si>
-  <si>
-    <t>miR-1947-5p</t>
-  </si>
-  <si>
-    <t>aggacgagcuagcugagugcug</t>
-  </si>
-  <si>
-    <t>mir-210-3p</t>
-  </si>
-  <si>
-    <t>cugugcgugugacagcggcuga</t>
-  </si>
-  <si>
-    <t>miR-22-3p</t>
-  </si>
-  <si>
-    <t>aagcugccaguugaagaacugu</t>
-  </si>
-  <si>
-    <t>miR-192-5p</t>
-  </si>
-  <si>
-    <t>cugaccuaugaauugacagcc</t>
-  </si>
-  <si>
-    <t>miR-374b-5p</t>
-  </si>
-  <si>
-    <t>auauaauacaaccugcuaagug</t>
-  </si>
-  <si>
-    <t>miR-126a-3p</t>
-  </si>
-  <si>
-    <t>ucguaccgugaguaauaaugcg</t>
-  </si>
-  <si>
-    <t>miR-451a</t>
-  </si>
-  <si>
-    <t>aaaccguuaccauuacugaguu</t>
-  </si>
-  <si>
-    <t>miR-144-5p</t>
-  </si>
-  <si>
-    <t>ggauaucaucauauacuguaagu</t>
-  </si>
-  <si>
-    <t>mir-150-5p</t>
-  </si>
-  <si>
-    <t>ucucccaacccuuguaccagug</t>
-  </si>
-  <si>
-    <t>mir-1a-3p</t>
-  </si>
-  <si>
-    <t>uggaauguaaagaaguauguau</t>
-  </si>
-  <si>
-    <t>mir-26a-5p</t>
-  </si>
-  <si>
-    <t>uucaaguaauccaggauaggcu</t>
-  </si>
-  <si>
-    <t>mir-499-5p</t>
-  </si>
-  <si>
-    <t>uuaagacuugcagugauguuu</t>
-  </si>
-  <si>
-    <t>miR-144-3p</t>
-  </si>
-  <si>
-    <t>uacaguauagaugauguacu</t>
-  </si>
-  <si>
-    <t>miR-208a-3p</t>
-  </si>
-  <si>
-    <t>auaagacgagcaaaaagcuugu</t>
-  </si>
-  <si>
-    <t>miR-146a-5p</t>
-  </si>
-  <si>
-    <t>ugagaacugaauuccauggguu</t>
-  </si>
-  <si>
-    <t>miR-802-5p</t>
-  </si>
-  <si>
-    <t>ucaguaacaaagauucauccuu</t>
-  </si>
-  <si>
-    <t>mir-145a-5p</t>
-  </si>
-  <si>
-    <t>guccaguuuucccaggaaucccu</t>
-  </si>
-  <si>
-    <t>miR-133a-3p</t>
-  </si>
-  <si>
-    <t>uuugguccccuucaaccagcug</t>
-  </si>
-  <si>
-    <t>miR-26b-5p</t>
-  </si>
-  <si>
-    <t>uucaaguaauucaggauaggu</t>
-  </si>
-  <si>
-    <t>mir-122-5p</t>
-  </si>
-  <si>
-    <t>uggagugugacaaugguguuug</t>
-  </si>
-  <si>
-    <t>miR-186-5p</t>
-  </si>
-  <si>
-    <t>caaagaauucuccuuuugggcu</t>
-  </si>
-  <si>
-    <t>miR-25-3p</t>
-  </si>
-  <si>
-    <t>cauugcacuugucucggucuga</t>
-  </si>
-  <si>
-    <t>miR-382-5p</t>
-  </si>
-  <si>
-    <t>gaaguuguucgugguggauucg</t>
-  </si>
-  <si>
-    <t>miR-215-3p</t>
-  </si>
-  <si>
-    <t>ucugucauucuguaggccaau</t>
-  </si>
-  <si>
-    <t>miR-181d-5p</t>
-  </si>
-  <si>
-    <t>aacauucauuguugucggugggu</t>
-  </si>
-  <si>
-    <t>miR-145a-3p</t>
-  </si>
-  <si>
-    <t>auuccuggaaauacuguucuug</t>
-  </si>
-  <si>
-    <t>let-7b</t>
-  </si>
-  <si>
-    <t>ugagguaguagguugugugguu</t>
-  </si>
-  <si>
-    <t>mir-34a-5p</t>
-  </si>
-  <si>
-    <t>uggcagugucuuagcugguugu</t>
-  </si>
-  <si>
-    <t>miR-7a-5p</t>
-  </si>
-  <si>
-    <t>uggaagacuagugauuuuguugu</t>
-  </si>
-  <si>
-    <t>mir-142a-3p</t>
-  </si>
-  <si>
-    <t>uguaguguuuccuacuuuaugga</t>
-  </si>
-  <si>
-    <t>let-7j</t>
-  </si>
-  <si>
-    <t>ugagguauuaguuugugcuguuau</t>
-  </si>
-  <si>
     <t>hsa-let-7c-5p</t>
   </si>
   <si>
@@ -459,13 +261,211 @@
   </si>
   <si>
     <t>UGAGGUAGUAAGUUGUAUUGUU</t>
+  </si>
+  <si>
+    <t>mmu-miR-193b-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-345-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-1947-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-210-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-22-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-192-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-374b-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-126a-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-451a</t>
+  </si>
+  <si>
+    <t>mmu-miR-144-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-150-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-1a-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-26a-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-499-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-144-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-208a-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-146a-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-802-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-145a-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-133a-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-26b-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-122-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-186-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-25-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-382-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-215-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-181d-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-145a-3p</t>
+  </si>
+  <si>
+    <t>mmu-miR-34a-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-7a-5p</t>
+  </si>
+  <si>
+    <t>mmu-miR-142a-3p</t>
+  </si>
+  <si>
+    <t>mmu-let-7b</t>
+  </si>
+  <si>
+    <t>mmu-let-7j</t>
+  </si>
+  <si>
+    <t>AACUGGCCCACAAAGUCCCGCU</t>
+  </si>
+  <si>
+    <t>CCUGAACUAGGGGUCUGGAGAC</t>
+  </si>
+  <si>
+    <t>AGGACGAGCUAGCUGAGUGCUG</t>
+  </si>
+  <si>
+    <t>CUGUGCGUGUGACAGCGGCUGA</t>
+  </si>
+  <si>
+    <t>AAGCUGCCAGUUGAAGAACUGU</t>
+  </si>
+  <si>
+    <t>CUGACCUAUGAAUUGACAGCC</t>
+  </si>
+  <si>
+    <t>AUAUAAUACAACCUGCUAAGUG</t>
+  </si>
+  <si>
+    <t>UCGUACCGUGAGUAAUAAUGCG</t>
+  </si>
+  <si>
+    <t>AAACCGUUACCAUUACUGAGUU</t>
+  </si>
+  <si>
+    <t>GGAUAUCAUCAUAUACUGUAAGU</t>
+  </si>
+  <si>
+    <t>UCUCCCAACCCUUGUACCAGUG</t>
+  </si>
+  <si>
+    <t>UGGAAUGUAAAGAAGUAUGUAU</t>
+  </si>
+  <si>
+    <t>UUCAAGUAAUCCAGGAUAGGCU</t>
+  </si>
+  <si>
+    <t>UUAAGACUUGCAGUGAUGUUU</t>
+  </si>
+  <si>
+    <t>UACAGUAUAGAUGAUGUACU</t>
+  </si>
+  <si>
+    <t>AUAAGACGAGCAAAAAGCUUGU</t>
+  </si>
+  <si>
+    <t>UGAGAACUGAAUUCCAUGGGUU</t>
+  </si>
+  <si>
+    <t>UCAGUAACAAAGAUUCAUCCUU</t>
+  </si>
+  <si>
+    <t>GUCCAGUUUUCCCAGGAAUCCCU</t>
+  </si>
+  <si>
+    <t>UUUGGUCCCCUUCAACCAGCUG</t>
+  </si>
+  <si>
+    <t>UUCAAGUAAUUCAGGAUAGGU</t>
+  </si>
+  <si>
+    <t>UGGAGUGUGACAAUGGUGUUUG</t>
+  </si>
+  <si>
+    <t>CAAAGAAUUCUCCUUUUGGGCU</t>
+  </si>
+  <si>
+    <t>CAUUGCACUUGUCUCGGUCUGA</t>
+  </si>
+  <si>
+    <t>GAAGUUGUUCGUGGUGGAUUCG</t>
+  </si>
+  <si>
+    <t>UCUGUCAUUCUGUAGGCCAAU</t>
+  </si>
+  <si>
+    <t>AACAUUCAUUGUUGUCGGUGGGU</t>
+  </si>
+  <si>
+    <t>AUUCCUGGAAAUACUGUUCUUG</t>
+  </si>
+  <si>
+    <t>UGAGGUAGUAGGUUGUGUGGUU</t>
+  </si>
+  <si>
+    <t>UGGCAGUGUCUUAGCUGGUUGU</t>
+  </si>
+  <si>
+    <t>UGGAAGACUAGUGAUUUUGUUGU</t>
+  </si>
+  <si>
+    <t>UGUAGUGUUUCCUACUUUAUGGA</t>
+  </si>
+  <si>
+    <t>UGAGGUAUUAGUUUGUGCUGUUAU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +606,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -949,11 +955,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1014,9 +1023,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1054,7 +1063,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1160,7 +1169,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1302,7 +1311,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1312,17 +1321,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1333,371 +1342,370 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>86</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
+        <v>87</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
+        <v>89</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
+        <v>92</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
+        <v>93</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+        <v>94</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>95</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
+        <v>96</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
+        <v>97</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
+        <v>98</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
+        <v>99</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+        <v>100</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+        <v>101</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
+        <v>103</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
+        <v>104</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
+        <v>105</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
+        <v>106</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
+        <v>110</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
+        <v>107</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
+        <v>108</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
+        <v>109</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
+        <v>111</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1706,17 +1714,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6079097-20F9-42A5-8403-59D9527473A6}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1727,421 +1735,421 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>77</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B39" t="s">
         <v>78</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" t="s">
-        <v>144</v>
       </c>
       <c r="C39">
         <v>1</v>
